--- a/Excel/RS SP500/RS SP500 2013.xlsx
+++ b/Excel/RS SP500/RS SP500 2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseed\Documents\GitHub\rcode\honours-project\Excel\RS SP500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7302E-717A-4CC4-841F-E30A55C20FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FA347-F962-423F-815D-BE63BC1A5EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:Q1819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S343" sqref="S343"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31358,6 +31358,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E3852A6BA6199E4A8883AB9D2DFD1AEB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ea6d121bab164a4e6f49fc4c62fc576">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c247b397-3abb-4843-9d06-059e63be1e55" xmlns:ns4="676b2bf2-ba15-4e71-a2b7-eb057b5b0307" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8649377d1957a994756bb9abefaf6cf7" ns3:_="" ns4:_="">
     <xsd:import namespace="c247b397-3abb-4843-9d06-059e63be1e55"/>
@@ -31574,12 +31580,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31590,6 +31590,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F270598A-7791-4D09-B8A0-FD1E72B1DDE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEB0786D-4F1A-4129-9188-110EDF86EA0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31608,15 +31617,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F270598A-7791-4D09-B8A0-FD1E72B1DDE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77FA8210-A2BD-408F-8594-D85CE0EF8AD2}">
   <ds:schemaRefs>
